--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/RA work/build_TB_data/Signatures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F855B057-812C-2244-A15C-BF1B80EA7540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4322FC90-9E47-6F4D-9029-6759E3F38D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="4620" windowWidth="35340" windowHeight="21140" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="9980" yWindow="1840" windowWidth="33600" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="140">
   <si>
     <t>GEO accession</t>
   </si>
@@ -161,15 +163,6 @@
 Controls: Latent TB individuals are used as a control for PTB in this dataset since there are few to no unexposed adult controls in Cape Town.</t>
   </si>
   <si>
-    <t>Hi-seq</t>
-  </si>
-  <si>
-    <t>Affymertirx</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
     <t>GSE73408*</t>
   </si>
   <si>
@@ -244,9 +237,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>** paper does not have it</t>
-  </si>
-  <si>
     <t>GSE28623</t>
   </si>
   <si>
@@ -449,13 +439,49 @@
   </si>
   <si>
     <t>34 datasets in total</t>
+  </si>
+  <si>
+    <t>** paper from stanford does not have it</t>
+  </si>
+  <si>
+    <t>Affymertirx Microarray</t>
+  </si>
+  <si>
+    <t>Illumina RNA-seq</t>
+  </si>
+  <si>
+    <t>Illumina Microarray</t>
+  </si>
+  <si>
+    <t>GSE41055</t>
+  </si>
+  <si>
+    <t>GPL5175</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>Sputum culture, TST, QFT-GIT</t>
+  </si>
+  <si>
+    <t>GSE62147</t>
+  </si>
+  <si>
+    <t>GSE25534</t>
+  </si>
+  <si>
+    <t>GPL1708</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,14 +514,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="16"/>
       <color theme="1"/>
@@ -558,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -570,7 +588,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,25 +596,16 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -605,11 +614,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -926,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -984,9 +999,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="21">
-      <c r="A2" s="13" t="s">
-        <v>43</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="21">
+      <c r="A2" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="69" customHeight="1">
@@ -1024,7 +1039,7 @@
     </row>
     <row r="4" spans="1:14" ht="70" customHeight="1">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1048,16 +1063,16 @@
         <v>18</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L39" si="0">H4+I4+J4+K4</f>
+        <f t="shared" ref="L4:L42" si="0">H4+I4+J4+K4</f>
         <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" customHeight="1">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1082,12 +1097,12 @@
         <v>108</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1118,116 +1133,115 @@
         <v>109</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="21">
-      <c r="A7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="85">
-      <c r="A8" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="34">
+      <c r="A7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="21">
+      <c r="A8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" ht="85">
+      <c r="A9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="H9" s="15">
+        <v>314</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
+        <v>98</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="18">
-        <v>314</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>98</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>412</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="119">
-      <c r="A9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="119">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9">
-        <v>166</v>
-      </c>
-      <c r="J9">
-        <v>98</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>264</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="51">
-      <c r="A10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1236,28 +1250,29 @@
         <v>25</v>
       </c>
       <c r="I10">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="J10">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -1272,34 +1287,34 @@
         <v>25</v>
       </c>
       <c r="I11">
-        <v>31</v>
-      </c>
-      <c r="J11" s="3">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>21</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="62" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="51">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1307,23 +1322,23 @@
       <c r="G12" t="s">
         <v>25</v>
       </c>
-      <c r="H12">
-        <v>69</v>
-      </c>
       <c r="I12">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="49" customHeight="1">
+        <v>47</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="62" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1335,7 +1350,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1344,81 +1359,84 @@
         <v>25</v>
       </c>
       <c r="H13">
+        <v>69</v>
+      </c>
+      <c r="I13">
+        <v>69</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="49" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
         <v>50</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>72</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>53</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="21">
-      <c r="A14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15">
-        <v>33</v>
-      </c>
-      <c r="J15">
-        <v>21</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
+      <c r="M14" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="21">
+      <c r="A15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -1432,20 +1450,20 @@
       <c r="G16" t="s">
         <v>35</v>
       </c>
-      <c r="H16">
-        <v>16</v>
+      <c r="I16">
+        <v>33</v>
       </c>
       <c r="J16">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="86" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -1457,7 +1475,7 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1465,35 +1483,32 @@
       <c r="G17" t="s">
         <v>35</v>
       </c>
-      <c r="I17">
-        <v>31</v>
+      <c r="H17">
+        <v>16</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="86" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1501,32 +1516,35 @@
       <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="H18">
-        <v>12</v>
-      </c>
       <c r="I18">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="86" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1537,20 +1555,20 @@
       <c r="H19">
         <v>12</v>
       </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
       <c r="J19">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="102">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="86" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -1558,8 +1576,8 @@
       <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>59</v>
+      <c r="E20" t="s">
+        <v>55</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1568,307 +1586,301 @@
         <v>35</v>
       </c>
       <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="102">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21">
         <v>81</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>193</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="69" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="M21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="69" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21">
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <v>18</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22">
-        <v>14</v>
-      </c>
-      <c r="J22">
-        <v>79</v>
-      </c>
-      <c r="K22">
-        <v>64</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="M22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
       <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>79</v>
+      </c>
+      <c r="K23">
+        <v>64</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="M23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24">
         <v>54</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>111</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>169</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="M23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="51">
-      <c r="A24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24">
-        <v>25</v>
-      </c>
-      <c r="J24">
-        <v>15</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="51">
       <c r="A25" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>101</v>
+        <v>22</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="I25">
-        <v>21</v>
-      </c>
-      <c r="K25">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>23</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>25</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>167</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>195</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>175</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <f t="shared" si="0"/>
         <v>537</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="113" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27">
+    <row r="28" spans="1:13" ht="113" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28">
         <v>38</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>37</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="68">
-      <c r="A28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28">
-        <v>23</v>
-      </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="K28">
-        <v>11</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
       <c r="M28" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="85">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="68">
       <c r="A29" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -1883,31 +1895,31 @@
         <v>25</v>
       </c>
       <c r="H29">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
         <v>11</v>
       </c>
-      <c r="K29">
-        <v>39</v>
-      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="85">
       <c r="A30" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -1921,26 +1933,32 @@
       <c r="G30" t="s">
         <v>25</v>
       </c>
+      <c r="H30">
+        <v>52</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
       <c r="K30">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="85">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17">
       <c r="A31" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -1954,32 +1972,26 @@
       <c r="G31" t="s">
         <v>25</v>
       </c>
-      <c r="H31">
-        <v>38</v>
-      </c>
-      <c r="J31">
-        <v>16</v>
-      </c>
       <c r="K31">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="85">
       <c r="A32" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -1993,29 +2005,35 @@
       <c r="G32" t="s">
         <v>25</v>
       </c>
+      <c r="H32">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
       <c r="K32">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="51">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17">
       <c r="A33" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -2026,229 +2044,311 @@
       <c r="G33" t="s">
         <v>25</v>
       </c>
-      <c r="H33">
+      <c r="K33">
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="51">
+      <c r="A34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34">
         <v>30</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>30</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>30</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
+      <c r="L34">
+        <f>H34+I34+J34+K34</f>
         <v>90</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="21">
-      <c r="A34" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="1:13" ht="51">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35">
+      <c r="M34" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="21">
+      <c r="A35" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:13" ht="51">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36">
         <v>37</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>25</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>46</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <f t="shared" si="0"/>
         <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <v>18</v>
-      </c>
-      <c r="J36">
-        <v>8</v>
-      </c>
-      <c r="K36">
-        <v>18</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37">
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38">
         <v>14</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>14</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>14</v>
       </c>
-      <c r="L37">
+      <c r="L38">
         <f t="shared" si="0"/>
         <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="68">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38">
-        <v>76</v>
-      </c>
-      <c r="J38">
-        <v>113</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="68">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
       </c>
       <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>76</v>
+      </c>
+      <c r="J39">
+        <v>113</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="68">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39">
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40">
         <v>36</v>
       </c>
-      <c r="I39">
-        <v>17</v>
-      </c>
-      <c r="J39">
+      <c r="I40">
+        <v>17</v>
+      </c>
+      <c r="J40">
         <v>19</v>
       </c>
-      <c r="L39">
+      <c r="L40">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="M40" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>47</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <v>45</v>
+      </c>
+      <c r="J41">
+        <v>44</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
         <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="J42">
+        <v>52</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A8:M8"/>
     <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E20" twoDigitTextYear="1"/>
+    <ignoredError sqref="E21" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4322FC90-9E47-6F4D-9029-6759E3F38D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF94E361-20AD-B544-981A-361A4A2BB56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="1840" windowWidth="33600" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="7380" yWindow="1800" windowWidth="31020" windowHeight="18560" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
   <si>
     <t>GEO accession</t>
   </si>
@@ -59,16 +59,10 @@
     <t>Latent</t>
   </si>
   <si>
-    <t>ODs</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Controls</t>
   </si>
   <si>
     <t>GSE54992</t>
@@ -475,13 +469,74 @@
   </si>
   <si>
     <t>GPL1708</t>
+  </si>
+  <si>
+    <t>South Africa/Malawi</t>
+  </si>
+  <si>
+    <t>GSE101705</t>
+  </si>
+  <si>
+    <t>GPL16791</t>
+  </si>
+  <si>
+    <t>GSE112104 (private)</t>
+  </si>
+  <si>
+    <t>GPL18573</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Neagtive</t>
+  </si>
+  <si>
+    <t>South India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sputum culture
+</t>
+  </si>
+  <si>
+    <t>&gt;18 (one 16)</t>
+  </si>
+  <si>
+    <t>TST, sputum AFB, culture</t>
+  </si>
+  <si>
+    <t>GSE107104</t>
+  </si>
+  <si>
+    <t>GSE89403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smear or microbiologically-confirmed TB </t>
+  </si>
+  <si>
+    <t>OD was HIV</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>Nagetive</t>
+  </si>
+  <si>
+    <t>MGIT, XPERT, TGRV, culture confirmed</t>
+  </si>
+  <si>
+    <t>Samples from the TB cases have been collected on the start day of TB treatment and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. 2 NA's in TB status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,6 +604,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -576,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -615,6 +682,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -941,11 +1014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -981,47 +1054,47 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="21">
-      <c r="A2" s="20" t="s">
-        <v>129</v>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="21">
+      <c r="A2" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="69" customHeight="1">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -1039,55 +1112,55 @@
     </row>
     <row r="4" spans="1:14" ht="70" customHeight="1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
       <c r="J4">
         <v>18</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L42" si="0">H4+I4+J4+K4</f>
+        <f t="shared" ref="L4:L46" si="0">H4+I4+J4+K4</f>
         <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" customHeight="1">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>108</v>
@@ -1097,27 +1170,27 @@
         <v>108</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>35</v>
@@ -1133,30 +1206,30 @@
         <v>109</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34">
       <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
         <v>132</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -1173,43 +1246,43 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="21">
-      <c r="A8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="A8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="85">
       <c r="A9" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="H9" s="15">
         <v>314</v>
@@ -1224,30 +1297,30 @@
         <v>412</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10">
         <v>166</v>
@@ -1260,1095 +1333,1231 @@
         <v>264</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="51">
+    <row r="11" spans="1:14" ht="102">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11">
-        <v>33</v>
+        <v>155</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>373</v>
+      </c>
+      <c r="K11">
+        <v>38</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>446</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="51">
       <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>21</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="51">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>31</v>
+      </c>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="62" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>69</v>
+      </c>
+      <c r="I14">
+        <v>69</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="49" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>72</v>
+      </c>
+      <c r="J15">
+        <v>53</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="49" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>28</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="49" customHeight="1">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="49" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="21">
+      <c r="A19" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12">
-        <v>31</v>
-      </c>
-      <c r="J12" s="3">
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="62" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13">
-        <v>69</v>
-      </c>
-      <c r="I13">
-        <v>69</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="49" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14">
-        <v>50</v>
-      </c>
-      <c r="I14">
-        <v>72</v>
-      </c>
-      <c r="J14">
-        <v>53</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="21">
-      <c r="A15" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16">
+      <c r="I20">
         <v>33</v>
-      </c>
-      <c r="J16">
-        <v>21</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17">
-        <v>16</v>
-      </c>
-      <c r="J17">
-        <v>28</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="86" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18">
-        <v>31</v>
-      </c>
-      <c r="J18">
-        <v>20</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>17</v>
-      </c>
-      <c r="J19">
-        <v>13</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="86" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20">
-        <v>12</v>
       </c>
       <c r="J20">
         <v>21</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="102">
-      <c r="A21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>28</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="86" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21">
-        <v>81</v>
-      </c>
-      <c r="K21">
-        <v>193</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="69" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22">
-        <v>18</v>
+      <c r="I22">
+        <v>31</v>
       </c>
       <c r="J22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>93</v>
+        <v>51</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="86" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="102">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="K25">
+        <v>193</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="69" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23">
-        <v>14</v>
-      </c>
-      <c r="J23">
-        <v>79</v>
-      </c>
-      <c r="K23">
-        <v>64</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="B26" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24">
-        <v>54</v>
-      </c>
-      <c r="J24">
-        <v>111</v>
-      </c>
-      <c r="K24">
-        <v>169</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>334</v>
-      </c>
-      <c r="M24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="51">
-      <c r="A25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25">
-        <v>25</v>
-      </c>
-      <c r="J25">
-        <v>15</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26">
-        <v>21</v>
-      </c>
-      <c r="K26">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>18</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>79</v>
+      </c>
+      <c r="K27">
+        <v>64</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="M27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="34">
+      <c r="A28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28">
+        <v>54</v>
+      </c>
+      <c r="J28">
+        <v>111</v>
+      </c>
+      <c r="K28">
+        <v>169</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="M28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="51">
+      <c r="A29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30">
+        <v>21</v>
+      </c>
+      <c r="K30">
+        <v>23</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31">
+        <v>167</v>
+      </c>
+      <c r="J31">
+        <v>195</v>
+      </c>
+      <c r="K31">
+        <v>175</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="113" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>37</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="68">
+      <c r="A33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="85">
+      <c r="A34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>52</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>39</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17">
+      <c r="A35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35">
+        <v>27</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="85">
+      <c r="A36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
+      <c r="K36">
+        <v>41</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17">
+      <c r="A37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="51">
+      <c r="A38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="J38">
+        <v>30</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <f>H38+I38+J38+K38</f>
+        <v>90</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="21">
+      <c r="A39" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+    </row>
+    <row r="40" spans="1:13" ht="51">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40">
+        <v>37</v>
+      </c>
+      <c r="I40">
         <v>25</v>
       </c>
-      <c r="I27">
-        <v>167</v>
-      </c>
-      <c r="J27">
-        <v>195</v>
-      </c>
-      <c r="K27">
-        <v>175</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>537</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="113" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28">
-        <v>38</v>
-      </c>
-      <c r="J28">
-        <v>37</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="68">
-      <c r="A29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29">
-        <v>23</v>
-      </c>
-      <c r="J29">
-        <v>8</v>
-      </c>
-      <c r="K29">
-        <v>11</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="85">
-      <c r="A30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30">
-        <v>52</v>
-      </c>
-      <c r="J30">
-        <v>11</v>
-      </c>
-      <c r="K30">
-        <v>39</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17">
-      <c r="A31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31">
-        <v>27</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="85">
-      <c r="A32" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32">
-        <v>38</v>
-      </c>
-      <c r="J32">
-        <v>16</v>
-      </c>
-      <c r="K32">
-        <v>41</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="17">
-      <c r="A33" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33">
-        <v>17</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="51">
-      <c r="A34" s="5" t="s">
+      <c r="J40">
+        <v>46</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
         <v>108</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34">
-        <v>30</v>
-      </c>
-      <c r="J34">
-        <v>30</v>
-      </c>
-      <c r="K34">
-        <v>30</v>
-      </c>
-      <c r="L34">
-        <f>H34+I34+J34+K34</f>
-        <v>90</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="21">
-      <c r="A35" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-    </row>
-    <row r="36" spans="1:13" ht="51">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36">
-        <v>37</v>
-      </c>
-      <c r="I36">
-        <v>25</v>
-      </c>
-      <c r="J36">
-        <v>46</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37">
-        <v>18</v>
-      </c>
-      <c r="J37">
-        <v>8</v>
-      </c>
-      <c r="K37">
-        <v>18</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38">
-        <v>14</v>
-      </c>
-      <c r="I38">
-        <v>14</v>
-      </c>
-      <c r="J38">
-        <v>14</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="68">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39">
-        <v>76</v>
-      </c>
-      <c r="J39">
-        <v>113</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="68">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40">
-        <v>36</v>
-      </c>
-      <c r="I40">
-        <v>17</v>
-      </c>
-      <c r="J40">
-        <v>19</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
       <c r="H41">
-        <v>13</v>
-      </c>
-      <c r="I41">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>18</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
         <v>68</v>
       </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
       <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
         <v>14</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="68">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>76</v>
+      </c>
+      <c r="J43">
+        <v>113</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="68">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44">
+        <v>36</v>
+      </c>
+      <c r="I44">
         <v>17</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="J42">
-        <v>52</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
-        <v>44</v>
+      <c r="J44">
+        <v>19</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>45</v>
+      </c>
+      <c r="J45">
+        <v>44</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="J46">
+        <v>52</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A39:L39"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A19:M19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E21" twoDigitTextYear="1"/>
+    <ignoredError sqref="E25" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF94E361-20AD-B544-981A-361A4A2BB56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8305C50-2DFC-C546-ACCB-9D8AFE1B2DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1800" windowWidth="31020" windowHeight="18560" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="4520" yWindow="1200" windowWidth="32260" windowHeight="20400" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1017,8 +1017,8 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2535,11 +2535,19 @@
         <v>125</v>
       </c>
       <c r="G47" s="4"/>
+      <c r="L47">
+        <f>SUM(L42)</f>
+        <v>42</v>
+      </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>42</v>
+      </c>
+      <c r="L48">
+        <f>SUM(L1:L47)</f>
+        <v>4710</v>
       </c>
     </row>
     <row r="49" spans="1:1">

--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8305C50-2DFC-C546-ACCB-9D8AFE1B2DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6B6723-5F87-4741-85FE-23A6C91D6913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="1200" windowWidth="32260" windowHeight="20400" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="9720" yWindow="2000" windowWidth="28440" windowHeight="18260" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,9 +480,6 @@
     <t>GPL16791</t>
   </si>
   <si>
-    <t>GSE112104 (private)</t>
-  </si>
-  <si>
     <t>GPL18573</t>
   </si>
   <si>
@@ -530,6 +527,9 @@
   </si>
   <si>
     <t>Samples from the TB cases have been collected on the start day of TB treatment and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. 2 NA's in TB status</t>
+  </si>
+  <si>
+    <t>GSE112104 (private, no self-process currently)</t>
   </si>
 </sst>
 </file>
@@ -617,18 +617,12 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -662,7 +656,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -688,6 +681,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1017,8 +1011,8 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1050,11 +1044,11 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1063,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1263,40 +1257,40 @@
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="85">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>118</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>314</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14">
         <v>98</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="14"/>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>412</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1339,7 +1333,7 @@
     </row>
     <row r="11" spans="1:14" ht="102">
       <c r="A11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1349,10 +1343,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -1368,7 +1362,7 @@
         <v>446</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N11" s="7"/>
     </row>
@@ -1524,22 +1518,22 @@
         <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1555,7 +1549,7 @@
     </row>
     <row r="17" spans="1:13" ht="49" customHeight="1">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1569,8 +1563,8 @@
       <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>151</v>
+      <c r="G17" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="J17">
         <v>17</v>
@@ -1583,27 +1577,27 @@
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="49" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>141</v>
+      <c r="A18" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="B18" t="s">
         <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18">
         <v>21</v>
@@ -1659,8 +1653,11 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
       <c r="I20">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J20">
         <v>21</v>
@@ -1893,7 +1890,7 @@
       <c r="E27" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>85</v>
       </c>
       <c r="G27" t="s">
@@ -1932,7 +1929,7 @@
       <c r="E28" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>85</v>
       </c>
       <c r="G28" t="s">
@@ -1971,7 +1968,7 @@
       <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>95</v>
       </c>
       <c r="I29">
@@ -2004,7 +2001,7 @@
       <c r="E30" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>95</v>
       </c>
       <c r="I30">
@@ -2034,7 +2031,7 @@
       <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>85</v>
       </c>
       <c r="G31" t="s">
@@ -2338,7 +2335,7 @@
       <c r="F40" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>73</v>
       </c>
       <c r="H40">

--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6B6723-5F87-4741-85FE-23A6C91D6913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9438E65-3305-EE4D-B97D-089252FCB414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="2000" windowWidth="28440" windowHeight="18260" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="9900" yWindow="3420" windowWidth="26840" windowHeight="17320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="162">
   <si>
     <t>GEO accession</t>
   </si>
@@ -530,6 +530,18 @@
   </si>
   <si>
     <t>GSE112104 (private, no self-process currently)</t>
+  </si>
+  <si>
+    <t>ODs was comorbid diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Ngeative</t>
+  </si>
+  <si>
+    <t>25-60</t>
+  </si>
+  <si>
+    <t>GSEXXXXX</t>
   </si>
 </sst>
 </file>
@@ -1008,11 +1020,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1130,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L46" si="0">H4+I4+J4+K4</f>
+        <f t="shared" ref="L4:L47" si="0">H4+I4+J4+K4</f>
         <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2300,261 +2312,300 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="21">
-      <c r="A39" s="20" t="s">
+    <row r="39" spans="1:13" ht="34">
+      <c r="A39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>29</v>
+      </c>
+      <c r="J39">
+        <v>53</v>
+      </c>
+      <c r="K39">
+        <v>28</v>
+      </c>
+      <c r="L39">
+        <f>H39+I39+J39+K39</f>
+        <v>110</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="21">
+      <c r="A40" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-    </row>
-    <row r="40" spans="1:13" ht="51">
-      <c r="A40" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+    </row>
+    <row r="41" spans="1:13" ht="51">
+      <c r="A41" t="s">
         <v>63</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>64</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>71</v>
       </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
         <v>72</v>
       </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="10" t="s">
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>37</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>25</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>46</v>
       </c>
-      <c r="L40">
+      <c r="L41">
         <f t="shared" si="0"/>
         <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41">
-        <v>18</v>
-      </c>
-      <c r="J41">
-        <v>8</v>
-      </c>
-      <c r="K41">
-        <v>18</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>18</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>18</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>68</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>76</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42">
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
         <v>14</v>
       </c>
-      <c r="I42">
+      <c r="I43">
         <v>14</v>
       </c>
-      <c r="J42">
+      <c r="J43">
         <v>14</v>
       </c>
-      <c r="L42">
+      <c r="L43">
         <f t="shared" si="0"/>
         <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="68">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43">
-        <v>76</v>
-      </c>
-      <c r="J43">
-        <v>113</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="68">
       <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>76</v>
+      </c>
+      <c r="J44">
+        <v>113</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="68">
+      <c r="A45" t="s">
         <v>77</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>36</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <v>17</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>19</v>
       </c>
-      <c r="L44">
+      <c r="L45">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45">
-        <v>13</v>
-      </c>
-      <c r="I45">
-        <v>45</v>
-      </c>
-      <c r="J45">
-        <v>44</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G46" s="4"/>
+      <c r="H46">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>45</v>
+      </c>
       <c r="J46">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
       </c>
       <c r="G47" s="4"/>
+      <c r="J47">
+        <v>52</v>
+      </c>
       <c r="L47">
-        <f>SUM(L42)</f>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="L48">
+        <f>SUM(L43)</f>
         <v>42</v>
       </c>
-      <c r="L48">
-        <f>SUM(L1:L47)</f>
-        <v>4710</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49">
+        <f>SUM(L1:L48)</f>
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A40:L40"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A19:M19"/>

--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9438E65-3305-EE4D-B97D-089252FCB414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B04E156-7D9D-404A-8EF4-433185167218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="3420" windowWidth="26840" windowHeight="17320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="9980" yWindow="3320" windowWidth="28420" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="162">
   <si>
     <t>GEO accession</t>
   </si>
@@ -529,9 +530,6 @@
     <t>Samples from the TB cases have been collected on the start day of TB treatment and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. 2 NA's in TB status</t>
   </si>
   <si>
-    <t>GSE112104 (private, no self-process currently)</t>
-  </si>
-  <si>
     <t>ODs was comorbid diabetes mellitus</t>
   </si>
   <si>
@@ -542,6 +540,9 @@
   </si>
   <si>
     <t>GSEXXXXX</t>
+  </si>
+  <si>
+    <t>GSE112104</t>
   </si>
 </sst>
 </file>
@@ -618,15 +619,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF111111"/>
-      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -649,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,10 +691,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -705,6 +706,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,8 +1027,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1056,7 +1060,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -1575,7 +1579,7 @@
       <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>150</v>
       </c>
       <c r="J17">
@@ -1593,8 +1597,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="49" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>157</v>
+      <c r="A18" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="B18" t="s">
         <v>140</v>
@@ -1611,11 +1615,8 @@
       <c r="G18" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H18">
-        <v>21</v>
-      </c>
       <c r="I18">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J18">
         <v>14</v>
@@ -2314,7 +2315,7 @@
     </row>
     <row r="39" spans="1:13" ht="34">
       <c r="A39" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
@@ -2326,10 +2327,10 @@
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
@@ -2348,7 +2349,7 @@
         <v>110</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="21">
@@ -2616,4 +2617,229 @@
     <ignoredError sqref="E25" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D3FA9-EE86-404A-A6ED-FC6C5A340D81}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B04E156-7D9D-404A-8EF4-433185167218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA356050-803F-F147-881F-8546C8F6A363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="3320" windowWidth="28420" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="8180" yWindow="1480" windowWidth="30220" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="163">
   <si>
     <t>GEO accession</t>
   </si>
@@ -394,9 +394,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>Some Latent in Controls, could not discrimniate, paper mentioned 200 samples. Only 281 genes</t>
-  </si>
-  <si>
     <t xml:space="preserve">chest X-ray, sputum culture
 </t>
   </si>
@@ -543,13 +540,19 @@
   </si>
   <si>
     <t>GSE112104</t>
+  </si>
+  <si>
+    <t>Some Latent in Controls, could not discrimniate, paper mentioned 200 samples. Only 281 genes mapped, because it is a RT-PCR study</t>
+  </si>
+  <si>
+    <t>Has progression information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,6 +632,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -650,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -707,9 +717,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,8 +1038,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1064,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1073,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1084,7 +1095,7 @@
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="21">
       <c r="A2" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="69" customHeight="1">
@@ -1221,25 +1232,25 @@
     </row>
     <row r="7" spans="1:14" ht="34">
       <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -1257,7 +1268,7 @@
     </row>
     <row r="8" spans="1:14" ht="21">
       <c r="A8" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1274,25 +1285,25 @@
     </row>
     <row r="9" spans="1:14" ht="85">
       <c r="A9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="H9" s="14">
         <v>314</v>
@@ -1307,11 +1318,11 @@
         <v>412</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
@@ -1343,13 +1354,13 @@
         <v>264</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="102">
       <c r="A11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1359,10 +1370,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -1378,7 +1389,7 @@
         <v>446</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N11" s="7"/>
     </row>
@@ -1491,7 +1502,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
@@ -1526,30 +1537,30 @@
         <v>175</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1565,7 +1576,7 @@
     </row>
     <row r="17" spans="1:13" ht="49" customHeight="1">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1580,7 +1591,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J17">
         <v>17</v>
@@ -1593,27 +1604,27 @@
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="49" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18">
         <v>37</v>
@@ -1625,11 +1636,13 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="24" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="21">
       <c r="A19" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1934,7 +1947,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2315,7 +2328,7 @@
     </row>
     <row r="39" spans="1:13" ht="34">
       <c r="A39" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
@@ -2327,10 +2340,10 @@
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
@@ -2349,7 +2362,7 @@
         <v>110</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="21">
@@ -2467,7 +2480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="68">
+    <row r="44" spans="1:13" ht="85">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -2494,7 +2507,7 @@
         <v>189</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="68">
@@ -2511,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H45">
         <v>36</v>
@@ -2527,15 +2540,15 @@
         <v>72</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
         <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -2558,7 +2571,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
         <v>66</v>
@@ -2581,7 +2594,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G48" s="4"/>
       <c r="L48">
@@ -2601,7 +2614,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2651,12 +2664,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -2691,7 +2704,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2701,7 +2714,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2831,7 +2844,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:1">

--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA356050-803F-F147-881F-8546C8F6A363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAB7AD1-F9A8-304D-959D-14089902B918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="1480" windowWidth="30220" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -545,7 +545,7 @@
     <t>Some Latent in Controls, could not discrimniate, paper mentioned 200 samples. Only 281 genes mapped, because it is a RT-PCR study</t>
   </si>
   <si>
-    <t>Has progression information</t>
+    <t>Study for progressor</t>
   </si>
 </sst>
 </file>
@@ -705,6 +705,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -717,10 +721,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,8 +1038,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1093,8 +1093,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="22" customFormat="1" ht="21">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="21">
+      <c r="A2" s="24" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1267,21 +1267,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="21">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="85">
       <c r="A9" s="13" t="s">
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="119">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
@@ -1466,7 +1466,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="62" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B14" t="s">
@@ -1497,12 +1497,12 @@
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
@@ -1536,7 +1536,7 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="20" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="49" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="20" t="s">
         <v>160</v>
       </c>
       <c r="B18" t="s">
@@ -1636,26 +1636,26 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
@@ -2366,20 +2366,20 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="21">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:13" ht="51">
       <c r="A41" t="s">

--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAB7AD1-F9A8-304D-959D-14089902B918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4020B28B-1A33-1A4E-9531-FD237E050E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="1480" windowWidth="30220" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="8180" yWindow="460" windowWidth="30220" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,10 +219,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Longitudinal Study from Leicester cohort for non-progressor
-</t>
-  </si>
-  <si>
     <t>17-65</t>
   </si>
   <si>
@@ -426,10 +422,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Follow up healthy participants who were infected with M tuberculosis for 2 yrs, collected blood samples every 6 months. Not all samples are included in the raw counts (264/355)
-</t>
-  </si>
-  <si>
     <t>34 datasets in total</t>
   </si>
   <si>
@@ -546,13 +538,38 @@
   </si>
   <si>
     <t>Study for progressor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Study from Leicester cohort for control vs. non-progressor
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Follow up healthy participants who were infected with M tuberculosis for 2 yrs, collected blood samples every 6 months. Not all samples are included in the raw counts (264/355), some of them are replicates. Non-progressor vs. Progressor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -638,6 +655,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1038,8 +1060,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1075,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1084,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1095,7 +1117,7 @@
     </row>
     <row r="2" spans="1:14" s="24" customFormat="1" ht="21">
       <c r="A2" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="69" customHeight="1">
@@ -1232,25 +1254,25 @@
     </row>
     <row r="7" spans="1:14" ht="34">
       <c r="A7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
         <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -1268,7 +1290,7 @@
     </row>
     <row r="8" spans="1:14" ht="21">
       <c r="A8" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -1285,25 +1307,25 @@
     </row>
     <row r="9" spans="1:14" ht="85">
       <c r="A9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="H9" s="14">
         <v>314</v>
@@ -1318,10 +1340,10 @@
         <v>412</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="119">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="153">
       <c r="A10" s="21" t="s">
         <v>41</v>
       </c>
@@ -1354,13 +1376,13 @@
         <v>264</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="102">
       <c r="A11" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1370,10 +1392,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -1389,7 +1411,7 @@
         <v>446</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N11" s="7"/>
     </row>
@@ -1479,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -1498,7 +1520,7 @@
         <v>138</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
@@ -1515,7 +1537,7 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1537,30 +1559,30 @@
         <v>175</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
         <v>138</v>
       </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
       <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>143</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>145</v>
-      </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1576,7 +1598,7 @@
     </row>
     <row r="17" spans="1:13" ht="49" customHeight="1">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1588,10 +1610,10 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J17">
         <v>17</v>
@@ -1604,27 +1626,27 @@
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="49" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
         <v>139</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="I18">
         <v>37</v>
@@ -1637,12 +1659,12 @@
         <v>51</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21">
       <c r="A19" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -1866,25 +1888,25 @@
     </row>
     <row r="26" spans="1:13" ht="69" customHeight="1">
       <c r="A26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26">
         <v>18</v>
@@ -1897,27 +1919,27 @@
         <v>36</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="G27" t="s">
         <v>23</v>
@@ -1936,27 +1958,27 @@
         <v>157</v>
       </c>
       <c r="M27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="34">
       <c r="A28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
       <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -1975,15 +1997,15 @@
         <v>334</v>
       </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="51">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -1995,7 +2017,7 @@
         <v>20</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29">
         <v>25</v>
@@ -2008,15 +2030,15 @@
         <v>40</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -2025,10 +2047,10 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30">
         <v>21</v>
@@ -2043,13 +2065,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -2058,7 +2080,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
         <v>23</v>
@@ -2079,13 +2101,13 @@
     </row>
     <row r="32" spans="1:13" ht="113" customHeight="1">
       <c r="A32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -2101,18 +2123,18 @@
         <v>75</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="68">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -2140,18 +2162,18 @@
         <v>42</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="85">
       <c r="A34" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -2179,18 +2201,18 @@
         <v>102</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17">
       <c r="A35" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -2212,18 +2234,18 @@
         <v>27</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="85">
       <c r="A36" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -2251,18 +2273,18 @@
         <v>95</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17">
       <c r="A37" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
@@ -2284,21 +2306,21 @@
         <v>17</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="51">
       <c r="A38" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -2323,27 +2345,27 @@
         <v>90</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="34">
       <c r="A39" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
@@ -2362,12 +2384,12 @@
         <v>110</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="21">
       <c r="A40" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -2383,25 +2405,25 @@
     </row>
     <row r="41" spans="1:13" ht="51">
       <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
       <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
         <v>71</v>
       </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="H41">
         <v>37</v>
@@ -2419,19 +2441,19 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
       <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
         <v>74</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>75</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -2452,13 +2474,13 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
         <v>67</v>
       </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2482,13 +2504,13 @@
     </row>
     <row r="44" spans="1:13" ht="85">
       <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
         <v>69</v>
       </c>
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
@@ -2507,15 +2529,15 @@
         <v>189</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="68">
       <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
         <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2524,7 +2546,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45">
         <v>36</v>
@@ -2540,15 +2562,15 @@
         <v>72</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -2571,10 +2593,10 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2594,7 +2616,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G48" s="4"/>
       <c r="L48">
@@ -2614,7 +2636,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2664,12 +2686,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -2704,7 +2726,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2714,7 +2736,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2749,107 +2771,107 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4020B28B-1A33-1A4E-9531-FD237E050E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29261523-8064-D449-9DF9-5CBD27B83395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="460" windowWidth="30220" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="162">
   <si>
     <t>GEO accession</t>
   </si>
@@ -420,9 +420,6 @@
   <si>
     <t xml:space="preserve">Longitudinal Study from Leicester for progressor
 </t>
-  </si>
-  <si>
-    <t>34 datasets in total</t>
   </si>
   <si>
     <t>** paper from stanford does not have it</t>
@@ -662,12 +659,18 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -723,7 +726,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +745,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,8 +1063,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1093,11 +1096,11 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1106,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1115,9 +1118,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" ht="21">
-      <c r="A2" s="24" t="s">
-        <v>124</v>
+    <row r="2" spans="1:14" s="23" customFormat="1" ht="21">
+      <c r="A2" s="23" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="69" customHeight="1">
@@ -1254,25 +1257,25 @@
     </row>
     <row r="7" spans="1:14" ht="34">
       <c r="A7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
         <v>127</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -1289,21 +1292,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="21">
-      <c r="A8" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="A8" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:14" ht="85">
       <c r="A9" s="13" t="s">
@@ -1344,7 +1347,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="153">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
@@ -1376,13 +1379,13 @@
         <v>264</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="102">
       <c r="A11" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1392,10 +1395,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -1411,7 +1414,7 @@
         <v>446</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N11" s="7"/>
     </row>
@@ -1488,7 +1491,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="62" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B14" t="s">
@@ -1519,12 +1522,12 @@
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>161</v>
+      <c r="M14" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
@@ -1558,31 +1561,31 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1598,7 +1601,7 @@
     </row>
     <row r="17" spans="1:13" ht="49" customHeight="1">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1613,7 +1616,7 @@
         <v>94</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J17">
         <v>17</v>
@@ -1626,27 +1629,27 @@
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="49" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>158</v>
+      <c r="A18" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I18">
         <v>37</v>
@@ -1658,26 +1661,26 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>160</v>
+      <c r="M18" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21">
-      <c r="A19" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
+      <c r="A19" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
@@ -1969,7 +1972,7 @@
         <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="39" spans="1:13" ht="34">
       <c r="A39" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
@@ -2362,10 +2365,10 @@
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
@@ -2384,24 +2387,24 @@
         <v>110</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="21">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
     </row>
     <row r="41" spans="1:13" ht="51">
       <c r="A41" t="s">
@@ -2529,7 +2532,7 @@
         <v>189</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="68">
@@ -2567,10 +2570,10 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
         <v>133</v>
-      </c>
-      <c r="B46" t="s">
-        <v>134</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -2615,14 +2618,7 @@
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>122</v>
-      </c>
       <c r="G48" s="4"/>
-      <c r="L48">
-        <f>SUM(L43)</f>
-        <v>42</v>
-      </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:12">
@@ -2631,12 +2627,12 @@
       </c>
       <c r="L49">
         <f>SUM(L1:L48)</f>
-        <v>4820</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2665,212 +2661,212 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="19" t="s">
-        <v>128</v>
+      <c r="A5" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="19" t="s">
-        <v>138</v>
+      <c r="A13" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="19" t="s">
-        <v>137</v>
+      <c r="A15" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="19" t="s">
-        <v>134</v>
+      <c r="A41" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29261523-8064-D449-9DF9-5CBD27B83395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC343B4-CF67-D44C-9275-9942800F1ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="460" windowWidth="30220" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -414,10 +414,6 @@
 Use normalized reads, unable to find gene annotation information from raw counts</t>
   </si>
   <si>
-    <t xml:space="preserve">Some NAs in TBStatus
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longitudinal Study from Leicester for progressor
 </t>
   </si>
@@ -547,7 +543,7 @@
         <color theme="5"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Follow up healthy participants who were infected with M tuberculosis for 2 yrs, collected blood samples every 6 months. Not all samples are included in the raw counts (264/355), some of them are replicates. Non-progressor vs. Progressor</t>
+      <t>Follow up healthy participants who were infected with M tuberculosis for 2 yrs, collected blood samples every 6 months. Not all samples are included in the raw counts (264/355), some of them are replicates. Non-progressor vs. Progressor                Adolescent Cohort Study (ACS)</t>
     </r>
     <r>
       <rPr>
@@ -560,6 +556,10 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Some NAs in TBStatus; longitudinal study, GC6-74. Samples are collected every 6 months up to 18 months.   Latent: Non-progressor.         PTB: Progressor
+</t>
   </si>
 </sst>
 </file>
@@ -733,6 +733,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -745,7 +746,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,8 +1063,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1096,11 +1096,11 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1109,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1118,9 +1118,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="23" customFormat="1" ht="21">
-      <c r="A2" s="23" t="s">
-        <v>123</v>
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="21">
+      <c r="A2" s="24" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="69" customHeight="1">
@@ -1257,25 +1257,25 @@
     </row>
     <row r="7" spans="1:14" ht="34">
       <c r="A7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -1292,23 +1292,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="21">
-      <c r="A8" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" ht="85">
+      <c r="A8" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" ht="119">
       <c r="A9" s="13" t="s">
         <v>117</v>
       </c>
@@ -1330,23 +1330,23 @@
       <c r="G9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H9" s="14">
-        <v>314</v>
-      </c>
-      <c r="I9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14">
+        <v>327</v>
+      </c>
       <c r="J9" s="14">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="153">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="170">
       <c r="A10" s="20" t="s">
         <v>41</v>
       </c>
@@ -1379,13 +1379,13 @@
         <v>264</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="102">
       <c r="A11" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1395,10 +1395,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -1414,7 +1414,7 @@
         <v>446</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N11" s="7"/>
     </row>
@@ -1523,7 +1523,7 @@
         <v>138</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
@@ -1562,30 +1562,30 @@
         <v>175</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="17" spans="1:13" ht="49" customHeight="1">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1616,7 +1616,7 @@
         <v>94</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J17">
         <v>17</v>
@@ -1629,27 +1629,27 @@
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="49" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I18">
         <v>37</v>
@@ -1662,25 +1662,25 @@
         <v>51</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21">
-      <c r="A19" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="A19" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
@@ -1972,7 +1972,7 @@
         <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="39" spans="1:13" ht="34">
       <c r="A39" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
@@ -2365,10 +2365,10 @@
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
@@ -2387,24 +2387,24 @@
         <v>110</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="21">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:13" ht="51">
       <c r="A41" t="s">
@@ -2532,7 +2532,7 @@
         <v>189</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="68">
@@ -2570,10 +2570,10 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>133</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -2627,12 +2627,12 @@
       </c>
       <c r="L49">
         <f>SUM(L1:L48)</f>
-        <v>4778</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2722,7 +2722,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2732,7 +2732,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:1">

--- a/Data_summary.xlsx
+++ b/Data_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC343B4-CF67-D44C-9275-9942800F1ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1F81FE-9E7D-EF4E-9CEB-0C97A67A8C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="460" windowWidth="30220" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="30220" windowHeight="18200" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="161">
   <si>
     <t>GEO accession</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>&gt;18</t>
-  </si>
-  <si>
-    <t>Sputum culture…</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -384,9 +381,6 @@
 </t>
   </si>
   <si>
-    <t>ODs was sarcoidosia</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -501,9 +495,6 @@
   </si>
   <si>
     <t>OD</t>
-  </si>
-  <si>
-    <t>Nagetive</t>
   </si>
   <si>
     <t>MGIT, XPERT, TGRV, culture confirmed</t>
@@ -560,6 +551,12 @@
   <si>
     <t xml:space="preserve">Some NAs in TBStatus; longitudinal study, GC6-74. Samples are collected every 6 months up to 18 months.   Latent: Non-progressor.         PTB: Progressor
 </t>
+  </si>
+  <si>
+    <t>ODs was sarcoidosis</t>
+  </si>
+  <si>
+    <t>Sputum culture etc.</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1060,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1100,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1109,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1120,7 +1117,7 @@
     </row>
     <row r="2" spans="1:14" s="24" customFormat="1" ht="21">
       <c r="A2" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="69" customHeight="1">
@@ -1158,7 +1155,7 @@
     </row>
     <row r="4" spans="1:14" ht="70" customHeight="1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1186,12 +1183,12 @@
         <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" customHeight="1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1216,12 +1213,12 @@
         <v>108</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1252,30 +1249,30 @@
         <v>109</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34">
       <c r="A7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="8" spans="1:14" ht="21">
       <c r="A8" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -1310,25 +1307,25 @@
     </row>
     <row r="9" spans="1:14" ht="119">
       <c r="A9" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14">
@@ -1343,12 +1340,12 @@
         <v>428</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="170">
       <c r="A10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1379,13 +1376,13 @@
         <v>264</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="102">
       <c r="A11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1395,10 +1392,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -1414,13 +1411,13 @@
         <v>446</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="51">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1451,12 +1448,12 @@
         <v>54</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1487,12 +1484,12 @@
         <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="62" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1504,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -1523,12 +1520,12 @@
         <v>138</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1540,7 +1537,7 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1562,30 +1559,30 @@
         <v>175</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
         <v>134</v>
       </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
       <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>139</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>141</v>
-      </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1601,7 +1598,7 @@
     </row>
     <row r="17" spans="1:13" ht="49" customHeight="1">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1613,10 +1610,10 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>17</v>
@@ -1629,27 +1626,27 @@
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="49" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
         <v>135</v>
-      </c>
-      <c r="C18" t="s">
-        <v>137</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="I18">
         <v>37</v>
@@ -1662,12 +1659,12 @@
         <v>51</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21">
       <c r="A19" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -1702,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -1738,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="H21">
         <v>16</v>
@@ -1753,7 +1750,7 @@
     </row>
     <row r="22" spans="1:13" ht="86" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -1765,13 +1762,13 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="I22">
         <v>31</v>
@@ -1784,12 +1781,12 @@
         <v>51</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1801,13 +1798,13 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="H23">
         <v>12</v>
@@ -1825,7 +1822,7 @@
     </row>
     <row r="24" spans="1:13" ht="86" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -1834,13 +1831,13 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="H24">
         <v>12</v>
@@ -1853,12 +1850,12 @@
         <v>33</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="102">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1867,13 +1864,13 @@
         <v>26</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="H25">
         <v>81</v>
@@ -1886,30 +1883,30 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="69" customHeight="1">
       <c r="A26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H26">
         <v>18</v>
@@ -1922,27 +1919,27 @@
         <v>36</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="G27" t="s">
         <v>23</v>
@@ -1961,27 +1958,27 @@
         <v>157</v>
       </c>
       <c r="M27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="34">
       <c r="A28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
       <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -2000,15 +1997,15 @@
         <v>334</v>
       </c>
       <c r="M28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="51">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -2020,7 +2017,7 @@
         <v>20</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29">
         <v>25</v>
@@ -2033,15 +2030,15 @@
         <v>40</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -2050,10 +2047,10 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30">
         <v>21</v>
@@ -2068,13 +2065,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -2083,7 +2080,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
         <v>23</v>
@@ -2104,13 +2101,13 @@
     </row>
     <row r="32" spans="1:13" ht="113" customHeight="1">
       <c r="A32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -2126,18 +2123,18 @@
         <v>75</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="68">
       <c r="A33" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -2165,18 +2162,18 @@
         <v>42</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="85">
       <c r="A34" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -2204,18 +2201,18 @@
         <v>102</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -2237,18 +2234,18 @@
         <v>27</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="85">
       <c r="A36" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -2276,18 +2273,18 @@
         <v>95</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17">
       <c r="A37" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
@@ -2309,21 +2306,21 @@
         <v>17</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="51">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -2348,27 +2345,27 @@
         <v>90</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="34">
       <c r="A39" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
@@ -2387,12 +2384,12 @@
         <v>110</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="21">
       <c r="A40" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -2408,25 +2405,25 @@
     </row>
     <row r="41" spans="1:13" ht="51">
       <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
       <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
         <v>70</v>
       </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="H41">
         <v>37</v>
@@ -2444,19 +2441,19 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
       <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
         <v>73</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>74</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -2477,13 +2474,13 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2507,13 +2504,13 @@
     </row>
     <row r="44" spans="1:13" ht="85">
       <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
         <v>68</v>
       </c>
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
@@ -2532,15 +2529,15 @@
         <v>189</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="68">
       <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>77</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2549,7 +2546,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H45">
         <v>36</v>
@@ -2565,15 +2562,15 @@
         <v>72</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -2596,10 +2593,10 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L49">
         <f>SUM(L1:L48)</f>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2682,12 +2679,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -2722,7 +2719,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2732,7 +2729,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2767,107 +2764,107 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
